--- a/src/business/data/sell_data.xlsx
+++ b/src/business/data/sell_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +524,49 @@
         <v>1200000</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45814.02324728566</v>
+        <v>45814.02324728009</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2AYB-3AYB-5AYB</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1-1-1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27500</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45815.77188895833</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1AYB-1AP-1M</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2-3-2</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>45700</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45815.77444396124</v>
       </c>
     </row>
   </sheetData>

--- a/src/business/data/sell_data.xlsx
+++ b/src/business/data/sell_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,103 +470,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AB1-AB2-AB3</t>
+          <t>1AYB-5AYB-1AP-1M-4AYB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1-4-10</t>
+          <t>1-1-1-1-1</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>54200</v>
+        <v>32100</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45814.0092422801</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AB4-AB5-AB10</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20-5-10</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45814.02255357639</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AB5-CA5-TA1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>40-50-60</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>45814.02324728009</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2AYB-3AYB-5AYB</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1-1-1</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>27500</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45815.77188895833</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1AYB-1AP-1M</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2-3-2</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>45700</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45815.77444396124</v>
+        <v>45815.80757366943</v>
       </c>
     </row>
   </sheetData>

--- a/src/business/data/sell_data.xlsx
+++ b/src/business/data/sell_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,19 +470,229 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1AYB-5AYB-1AP-1M-4AYB</t>
+          <t>1L-1AP-4AYB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1-1-1-1-1</t>
+          <t>3-3-1</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>32100</v>
+        <v>29084</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45815.80757366943</v>
+        <v>45815.82576238426</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1P-1AYB-2AYB</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-1-2</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7045</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45814.82576238426</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1AYB-1L-4AYB-1AP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1-1-1-3</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>46501</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45812.82576238426</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1AP-1M-5AYB-1P-1L</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-2-3-3-3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>33424</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45810.82576238426</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1L-1AP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>15429</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45805.82576238426</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1AYB-1P</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-1</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>23108</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45795.82576238426</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5AYB-1AP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>25615</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45770.82576238426</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3AYB-1M</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2-3</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>43601</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45755.82576238426</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1AP-3AYB-1AYB-5AYB-1M</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1-3-1-3-2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>32203</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45809.82576238426</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1L-5AYB-1M</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2-2-3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>31254</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45793.82576238426</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1AYB-1L-2M</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4-4-6</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>246000</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45815.82793382008</v>
       </c>
     </row>
   </sheetData>

--- a/src/business/data/sell_data.xlsx
+++ b/src/business/data/sell_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,7 +692,133 @@
         <v>246000</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45815.82793382008</v>
+        <v>45815.82793381945</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5AYB</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45818.69865769676</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5AYB-1AP</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2-10</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>109000</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45818.6991234375</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1AYB</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45818.70166679398</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5AYB-1AP</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3-10</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>121000</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45818.70304361111</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1M-1L</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5-4</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>97000</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45818.70418662037</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2M</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45818.70474743722</v>
       </c>
     </row>
   </sheetData>

--- a/src/business/data/sell_data.xlsx
+++ b/src/business/data/sell_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,7 +818,28 @@
         <v>140000</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45818.70474743722</v>
+        <v>45818.70474744213</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1AYB-3AYB-5AYB-1L-1AP</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1-1-1-1-3</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>60500</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45819.82946605967</v>
       </c>
     </row>
   </sheetData>

--- a/src/business/data/sell_data.xlsx
+++ b/src/business/data/sell_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,7 +839,28 @@
         <v>60500</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45819.82946605967</v>
+        <v>45819.82946606482</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1AYB-2AYB-4AYB-1P-2P-4P-1AP-5AYB</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2-1-1-1-1-1-1-1</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>59150</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45821.69294795885</v>
       </c>
     </row>
   </sheetData>
